--- a/PPG/Avaliação CAPES.xlsx
+++ b/PPG/Avaliação CAPES.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E449AA44-D140-BA45-8A62-2EE65A993284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F790DF6-5EBC-9F47-AE15-868C01F774E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1600" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="1640" yWindow="1600" windowWidth="27160" windowHeight="16400" activeTab="1" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-2024" sheetId="5" r:id="rId1"/>
-    <sheet name="2017-2020" sheetId="4" r:id="rId2"/>
-    <sheet name="2013-2016" sheetId="3" r:id="rId3"/>
-    <sheet name="2010-2012" sheetId="2" r:id="rId4"/>
-    <sheet name="2006-2010" sheetId="1" r:id="rId5"/>
+    <sheet name="2025-2028" sheetId="6" r:id="rId1"/>
+    <sheet name="2021-2024" sheetId="5" r:id="rId2"/>
+    <sheet name="2017-2020" sheetId="4" r:id="rId3"/>
+    <sheet name="2013-2016" sheetId="3" r:id="rId4"/>
+    <sheet name="2010-2012" sheetId="2" r:id="rId5"/>
+    <sheet name="2006-2010" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Resolução No. 2/2007 CEPE-UNISUAM.pdf</t>
   </si>
@@ -171,6 +172,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/134iTZXKaCV9MuDGfVWfZ33ypzYrA3WOX</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/acesso-a-informacao/acoes-e-programas/avaliacao/sobre-a-avaliacao/areas-avaliacao/sobre-as-areas-de-avaliacao/colegio-de-ciencias-da-vida/ciencias-da-saude/ED_FISICA_DOCAREA_2025_2028.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/acesso-a-informacao/acoes-e-programas/avaliacao/sobre-a-avaliacao/areas-avaliacao/sobre-as-areas-de-avaliacao/colegio-de-ciencias-da-vida/ciencias-da-saude/ED_FISICA_FICHA_2025_2028.pdf</t>
+  </si>
+  <si>
+    <t>Fichas de Avaliação Acadêmico e Profissional</t>
   </si>
 </sst>
 </file>
@@ -202,18 +212,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,7 +239,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -550,8 +554,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017908A-A8F5-E649-8963-5ABAE14D9B0D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{683CAB6B-BD90-DA4E-AC21-93BF953827E8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4F23CA3F-8F45-034D-8201-C3B9D60A7DBC}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7D5AC0-5145-3246-B875-958408E9245A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,43 +645,25 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{ADE27324-0A5B-B449-9F3F-DF3906F3E35E}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{5F740058-8A58-444E-8BB9-7B8249D364DD}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5F740058-8A58-444E-8BB9-7B8249D364DD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1259D8-EF02-AF4B-A411-9C0B69E884EF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -703,7 +744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748E8628-0048-8045-BAD1-B3C2066EA98E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -806,7 +847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B700028B-27C3-C54A-A634-6807A449C1F8}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -896,7 +937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA398BFA-309A-F14C-BACC-4A6A2A919DD5}">
   <dimension ref="A1:C8"/>
   <sheetViews>

--- a/PPG/Avaliação CAPES.xlsx
+++ b/PPG/Avaliação CAPES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F790DF6-5EBC-9F47-AE15-868C01F774E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F78B5-6A2E-4D4A-A6FF-35C116FBBD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1600" windowWidth="27160" windowHeight="16400" activeTab="1" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="1640" yWindow="1600" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-2028" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Resolução No. 2/2007 CEPE-UNISUAM.pdf</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Fichas de Avaliação Acadêmico e Profissional</t>
+  </si>
+  <si>
+    <t>Portaria MEC nº 398, de 29 de maio de 2025</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/en/web/dou/-/portaria-mec-n-398-de-29-de-maio-de-2025-633396773</t>
   </si>
 </sst>
 </file>
@@ -557,6 +563,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017908A-A8F5-E649-8963-5ABAE14D9B0D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{683CAB6B-BD90-DA4E-AC21-93BF953827E8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4F23CA3F-8F45-034D-8201-C3B9D60A7DBC}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7D5AC0-5145-3246-B875-958408E9245A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,61 +640,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{683CAB6B-BD90-DA4E-AC21-93BF953827E8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{4F23CA3F-8F45-034D-8201-C3B9D60A7DBC}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7D5AC0-5145-3246-B875-958408E9245A}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -652,12 +658,24 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{ADE27324-0A5B-B449-9F3F-DF3906F3E35E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{5F740058-8A58-444E-8BB9-7B8249D364DD}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8303E3A1-B194-1241-8B8F-793CB29EB4CF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Avaliação CAPES.xlsx
+++ b/PPG/Avaliação CAPES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F78B5-6A2E-4D4A-A6FF-35C116FBBD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03847DC7-CC94-B044-98E6-EDE41DA36844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1600" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="1640" yWindow="1600" windowWidth="27160" windowHeight="16400" activeTab="1" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-2028" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>Resolução No. 2/2007 CEPE-UNISUAM.pdf</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>https://www.in.gov.br/en/web/dou/-/portaria-mec-n-398-de-29-de-maio-de-2025-633396773</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uripSQ5e7XZrhl2EZHf2sywDgRMhQZRB</t>
   </si>
 </sst>
 </file>
@@ -563,6 +566,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017908A-A8F5-E649-8963-5ABAE14D9B0D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{683CAB6B-BD90-DA4E-AC21-93BF953827E8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4F23CA3F-8F45-034D-8201-C3B9D60A7DBC}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7D5AC0-5145-3246-B875-958408E9245A}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,61 +643,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{683CAB6B-BD90-DA4E-AC21-93BF953827E8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{4F23CA3F-8F45-034D-8201-C3B9D60A7DBC}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7D5AC0-5145-3246-B875-958408E9245A}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -669,6 +672,17 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -676,6 +690,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{ADE27324-0A5B-B449-9F3F-DF3906F3E35E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{5F740058-8A58-444E-8BB9-7B8249D364DD}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{8303E3A1-B194-1241-8B8F-793CB29EB4CF}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{BFD508F8-633B-A94B-A38C-6273EE9A1AA1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
